--- a/WIP/Documents/Almost Final/F_Taxi_Driver_ScreenDesign_v1.0.xlsx
+++ b/WIP/Documents/Almost Final/F_Taxi_Driver_ScreenDesign_v1.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huuph_000\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huuph_000\Documents\GitHub\2015FALLIS01\WIP\Documents\Almost Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="FirstPage" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="75">
   <si>
     <t>Ảnh</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Đổi Mật Khẩu</t>
   </si>
   <si>
-    <t>Địa chỉ công ty</t>
-  </si>
-  <si>
     <t>Địa chỉ nhà</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>Tên</t>
   </si>
   <si>
-    <t>Công ty</t>
-  </si>
-  <si>
     <t>Nhà riêng</t>
   </si>
   <si>
@@ -268,6 +262,9 @@
   </si>
   <si>
     <t>Tin nhắn</t>
+  </si>
+  <si>
+    <t>Tiền</t>
   </si>
 </sst>
 </file>
@@ -903,6 +900,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -921,39 +951,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -969,9 +966,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -979,18 +988,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1373,139 +1370,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Flowchart: Process 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2495550" y="400050"/>
-          <a:ext cx="533400" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Sửa1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Flowchart: Process 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2505074" y="3181350"/>
-          <a:ext cx="542925" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Sửa3</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1514,7 +1387,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2505074" y="2581275"/>
+          <a:off x="2466974" y="3228975"/>
           <a:ext cx="542925" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -1549,69 +1422,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Sửa2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Flowchart: Process 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2495550" y="514350"/>
-          <a:ext cx="533400" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Lưu</a:t>
+            <a:t>Sửa</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4069,45 +3880,45 @@
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="99" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="100"/>
       <c r="D3" s="100"/>
       <c r="E3" s="101"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="128" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="135" t="s">
+      <c r="B4" s="122" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="124" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="128" t="s">
+      <c r="B5" s="122" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="124"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="122" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="124"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="135"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="128" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="135"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="128" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="130"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="125"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
@@ -4122,53 +3933,53 @@
       <c r="E9" s="18"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="126" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="127"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="81" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="127"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="132"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="81" t="s">
+      <c r="C12" s="127"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="82" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="131" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="126" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="127"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="82" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="82" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="131" t="s">
+      <c r="C14" s="131"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="83" t="s">
         <v>54</v>
-      </c>
-      <c r="C12" s="132"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="82" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="131" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="132"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="82" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="136" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="137"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="83" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
@@ -4237,7 +4048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -4246,7 +4057,7 @@
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="99" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" s="100"/>
       <c r="D3" s="100"/>
@@ -4272,7 +4083,7 @@
     </row>
     <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" s="91"/>
       <c r="D7" s="91"/>
@@ -4285,22 +4096,22 @@
       <c r="E8" s="154"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="145"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="147"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="151"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="145"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="147"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="151"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="145"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="147"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="151"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
@@ -4309,28 +4120,28 @@
       <c r="E12" s="18"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="145"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="147"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="151"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="145"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="147"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="151"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="145"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="147"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="151"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="145"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="147"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="151"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
@@ -4364,17 +4175,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4900,7 +4711,7 @@
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="99" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" s="100"/>
       <c r="D3" s="100"/>
@@ -4914,7 +4725,7 @@
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -4922,7 +4733,7 @@
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="108" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" s="109"/>
       <c r="D6" s="109"/>
@@ -5035,39 +4846,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q21"/>
+  <dimension ref="B2:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="99" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="100"/>
       <c r="D3" s="100"/>
       <c r="E3" s="101"/>
       <c r="H3" s="99" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I3" s="100"/>
       <c r="J3" s="100"/>
       <c r="K3" s="101"/>
-      <c r="N3" s="99" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="101"/>
-    </row>
-    <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="90"/>
       <c r="C4" s="47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="111" t="s">
@@ -5077,32 +4882,22 @@
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="18"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="18"/>
-    </row>
-    <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="90"/>
       <c r="C5" s="47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="45"/>
       <c r="E5" s="112"/>
       <c r="H5" s="56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="55"/>
       <c r="J5" s="55"/>
       <c r="K5" s="54"/>
-      <c r="N5" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="54"/>
-    </row>
-    <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="90"/>
       <c r="C6" s="91"/>
       <c r="D6" s="91"/>
@@ -5111,14 +4906,10 @@
       <c r="I6" s="52"/>
       <c r="J6" s="52"/>
       <c r="K6" s="51"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="51"/>
-    </row>
-    <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
@@ -5127,32 +4918,22 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="18"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="18"/>
-    </row>
-    <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="90"/>
       <c r="C8" s="91"/>
       <c r="D8" s="91"/>
       <c r="E8" s="92"/>
       <c r="H8" s="50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" s="49"/>
       <c r="J8" s="49"/>
       <c r="K8" s="48"/>
-      <c r="N8" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="48"/>
-    </row>
-    <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="46"/>
       <c r="D9" s="46"/>
@@ -5161,12 +4942,8 @@
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="18"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="18"/>
-    </row>
-    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="90"/>
       <c r="C10" s="91"/>
       <c r="D10" s="91"/>
@@ -5175,14 +4952,10 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="9"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="46"/>
@@ -5191,12 +4964,8 @@
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
       <c r="K11" s="18"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="18"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -5205,56 +4974,40 @@
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="18"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="18"/>
-    </row>
-    <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="18"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="45"/>
       <c r="H13" s="16"/>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="18"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="18"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="113" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="115"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
       <c r="H14" s="7"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="9"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="9"/>
-    </row>
-    <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="116"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="118"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
       <c r="H15" s="16"/>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="18"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="18"/>
-    </row>
-    <row r="16" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="90"/>
       <c r="C16" s="91"/>
       <c r="D16" s="91"/>
@@ -5263,12 +5016,8 @@
       <c r="I16" s="91"/>
       <c r="J16" s="91"/>
       <c r="K16" s="92"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="92"/>
-    </row>
-    <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="113" t="s">
         <v>12</v>
       </c>
@@ -5279,12 +5028,8 @@
       <c r="I17" s="43"/>
       <c r="J17" s="43"/>
       <c r="K17" s="44"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="44"/>
-    </row>
-    <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="116"/>
       <c r="C18" s="117"/>
       <c r="D18" s="117"/>
@@ -5293,12 +5038,8 @@
       <c r="I18" s="91"/>
       <c r="J18" s="91"/>
       <c r="K18" s="92"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="92"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="16"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -5307,12 +5048,8 @@
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="18"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="18"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -5321,12 +5058,8 @@
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="18"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="18"/>
-    </row>
-    <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="42"/>
       <c r="C21" s="41" t="s">
         <v>11</v>
@@ -5337,28 +5070,20 @@
       <c r="I21" s="43"/>
       <c r="J21" s="43"/>
       <c r="K21" s="44"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="N18:Q18"/>
+  <mergeCells count="11">
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B14:E15"/>
     <mergeCell ref="B17:E18"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N16:Q16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5378,7 +5103,7 @@
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="99" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="100"/>
       <c r="D3" s="100"/>
@@ -5392,7 +5117,7 @@
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -5418,7 +5143,7 @@
     </row>
     <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -5536,21 +5261,21 @@
     <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="63" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="64" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="65"/>
       <c r="G3" s="72" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H3" s="73" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="74"/>
       <c r="L3" s="72" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M3" s="73" t="s">
         <v>3</v>
@@ -5562,12 +5287,12 @@
       <c r="C4" s="19"/>
       <c r="D4" s="18"/>
       <c r="G4" s="56" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H4" s="55"/>
       <c r="I4" s="54"/>
       <c r="L4" s="56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M4" s="55"/>
       <c r="N4" s="54"/>
@@ -5738,52 +5463,52 @@
       <c r="N19" s="68"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B20" s="122"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="126"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="126"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="124"/>
-      <c r="N20" s="126"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="137"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="137"/>
+      <c r="L20" s="133"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="137"/>
     </row>
     <row r="21" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="123"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="127"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="127"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="127"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="138"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="138"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="138"/>
     </row>
     <row r="24" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="G25" s="63" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H25" s="64" t="s">
         <v>3</v>
       </c>
       <c r="I25" s="65"/>
       <c r="L25" s="63" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M25" s="64" t="s">
         <v>3</v>
       </c>
       <c r="N25" s="65"/>
       <c r="Q25" s="63" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R25" s="64" t="s">
         <v>3</v>
       </c>
       <c r="S25" s="65"/>
       <c r="V25" s="99" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W25" s="100"/>
       <c r="X25" s="100"/>
@@ -5799,12 +5524,12 @@
       <c r="Q26" s="16"/>
       <c r="R26" s="19"/>
       <c r="S26" s="18"/>
-      <c r="V26" s="128" t="s">
-        <v>31</v>
-      </c>
-      <c r="W26" s="129"/>
-      <c r="X26" s="129"/>
-      <c r="Y26" s="135" t="s">
+      <c r="V26" s="122" t="s">
+        <v>29</v>
+      </c>
+      <c r="W26" s="123"/>
+      <c r="X26" s="123"/>
+      <c r="Y26" s="124" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5818,12 +5543,12 @@
       <c r="Q27" s="16"/>
       <c r="R27" s="19"/>
       <c r="S27" s="18"/>
-      <c r="V27" s="128" t="s">
-        <v>49</v>
-      </c>
-      <c r="W27" s="129"/>
-      <c r="X27" s="129"/>
-      <c r="Y27" s="135"/>
+      <c r="V27" s="122" t="s">
+        <v>47</v>
+      </c>
+      <c r="W27" s="123"/>
+      <c r="X27" s="123"/>
+      <c r="Y27" s="124"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="G28" s="16"/>
@@ -5835,12 +5560,12 @@
       <c r="Q28" s="16"/>
       <c r="R28" s="19"/>
       <c r="S28" s="18"/>
-      <c r="V28" s="128" t="s">
-        <v>50</v>
-      </c>
-      <c r="W28" s="129"/>
-      <c r="X28" s="129"/>
-      <c r="Y28" s="135"/>
+      <c r="V28" s="122" t="s">
+        <v>48</v>
+      </c>
+      <c r="W28" s="123"/>
+      <c r="X28" s="123"/>
+      <c r="Y28" s="124"/>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="G29" s="16"/>
@@ -5852,12 +5577,12 @@
       <c r="Q29" s="16"/>
       <c r="R29" s="17"/>
       <c r="S29" s="18"/>
-      <c r="V29" s="128" t="s">
-        <v>51</v>
-      </c>
-      <c r="W29" s="129"/>
-      <c r="X29" s="129"/>
-      <c r="Y29" s="130"/>
+      <c r="V29" s="122" t="s">
+        <v>49</v>
+      </c>
+      <c r="W29" s="123"/>
+      <c r="X29" s="123"/>
+      <c r="Y29" s="125"/>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="G30" s="16"/>
@@ -5899,13 +5624,13 @@
       <c r="Q32" s="16"/>
       <c r="R32" s="19"/>
       <c r="S32" s="18"/>
-      <c r="V32" s="131" t="s">
-        <v>52</v>
-      </c>
-      <c r="W32" s="132"/>
-      <c r="X32" s="133"/>
+      <c r="V32" s="126" t="s">
+        <v>50</v>
+      </c>
+      <c r="W32" s="127"/>
+      <c r="X32" s="128"/>
       <c r="Y32" s="81" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="7:25" x14ac:dyDescent="0.25">
@@ -5918,13 +5643,13 @@
       <c r="Q33" s="16"/>
       <c r="R33" s="19"/>
       <c r="S33" s="18"/>
-      <c r="V33" s="131" t="s">
-        <v>53</v>
-      </c>
-      <c r="W33" s="132"/>
-      <c r="X33" s="133"/>
+      <c r="V33" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="W33" s="127"/>
+      <c r="X33" s="128"/>
       <c r="Y33" s="82" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="7:25" x14ac:dyDescent="0.25">
@@ -5937,13 +5662,13 @@
       <c r="Q34" s="16"/>
       <c r="R34" s="19"/>
       <c r="S34" s="18"/>
-      <c r="V34" s="131" t="s">
-        <v>54</v>
-      </c>
-      <c r="W34" s="132"/>
-      <c r="X34" s="133"/>
+      <c r="V34" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="W34" s="127"/>
+      <c r="X34" s="128"/>
       <c r="Y34" s="82" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="7:25" x14ac:dyDescent="0.25">
@@ -5956,13 +5681,13 @@
       <c r="Q35" s="16"/>
       <c r="R35" s="17"/>
       <c r="S35" s="18"/>
-      <c r="V35" s="131" t="s">
-        <v>37</v>
-      </c>
-      <c r="W35" s="132"/>
-      <c r="X35" s="133"/>
+      <c r="V35" s="126" t="s">
+        <v>35</v>
+      </c>
+      <c r="W35" s="127"/>
+      <c r="X35" s="128"/>
       <c r="Y35" s="82" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="7:25" x14ac:dyDescent="0.25">
@@ -5975,13 +5700,13 @@
       <c r="Q36" s="16"/>
       <c r="R36" s="19"/>
       <c r="S36" s="18"/>
-      <c r="V36" s="136" t="s">
-        <v>55</v>
-      </c>
-      <c r="W36" s="137"/>
-      <c r="X36" s="138"/>
+      <c r="V36" s="130" t="s">
+        <v>53</v>
+      </c>
+      <c r="W36" s="131"/>
+      <c r="X36" s="132"/>
       <c r="Y36" s="83" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="7:25" x14ac:dyDescent="0.25">
@@ -6007,10 +5732,10 @@
       <c r="M38" s="19"/>
       <c r="N38" s="18"/>
       <c r="Q38" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R38" s="91" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S38" s="92"/>
       <c r="V38" s="90"/>
@@ -6019,26 +5744,26 @@
       <c r="Y38" s="92"/>
     </row>
     <row r="39" spans="7:25" x14ac:dyDescent="0.25">
-      <c r="G39" s="134" t="s">
+      <c r="G39" s="129" t="s">
         <v>0</v>
       </c>
       <c r="H39" s="77" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I39" s="18"/>
-      <c r="L39" s="134" t="s">
+      <c r="L39" s="129" t="s">
         <v>0</v>
       </c>
       <c r="M39" s="77" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N39" s="18"/>
       <c r="Q39" s="76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R39" s="77"/>
       <c r="S39" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V39" s="69"/>
       <c r="W39" s="70"/>
@@ -6046,22 +5771,22 @@
       <c r="Y39" s="71"/>
     </row>
     <row r="40" spans="7:25" x14ac:dyDescent="0.25">
-      <c r="G40" s="134"/>
+      <c r="G40" s="129"/>
       <c r="H40" s="77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I40" s="78"/>
-      <c r="L40" s="134"/>
+      <c r="L40" s="129"/>
       <c r="M40" s="77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N40" s="78"/>
       <c r="Q40" s="76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R40" s="77"/>
       <c r="S40" s="78" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="V40" s="69"/>
       <c r="W40" s="70"/>
@@ -6069,22 +5794,22 @@
       <c r="Y40" s="71"/>
     </row>
     <row r="41" spans="7:25" x14ac:dyDescent="0.25">
-      <c r="G41" s="134"/>
+      <c r="G41" s="129"/>
       <c r="H41" s="79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I41" s="78"/>
-      <c r="L41" s="134"/>
+      <c r="L41" s="129"/>
       <c r="M41" s="79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N41" s="78"/>
       <c r="Q41" s="76" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R41" s="79"/>
       <c r="S41" s="78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V41" s="16"/>
       <c r="W41" s="19"/>
@@ -6123,11 +5848,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y26:Y28"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
     <mergeCell ref="V29:Y29"/>
     <mergeCell ref="V32:X32"/>
     <mergeCell ref="V33:X33"/>
@@ -6138,15 +5867,11 @@
     <mergeCell ref="V36:X36"/>
     <mergeCell ref="V38:Y38"/>
     <mergeCell ref="R38:S38"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:Y28"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="V28:X28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6167,7 +5892,7 @@
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="99" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" s="100"/>
       <c r="D3" s="100"/>
@@ -6316,7 +6041,7 @@
       <c r="D3" s="100"/>
       <c r="E3" s="101"/>
       <c r="H3" s="99" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I3" s="100"/>
       <c r="J3" s="100"/>
@@ -6327,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="18"/>
@@ -6339,7 +6064,7 @@
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="112"/>
       <c r="C5" s="47" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="45"/>
       <c r="E5" s="18"/>
@@ -6364,12 +6089,12 @@
       <c r="D7" s="19"/>
       <c r="E7" s="18"/>
       <c r="H7" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="144" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="144"/>
+        <v>19</v>
+      </c>
+      <c r="I7" s="145" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="145"/>
       <c r="K7" s="58"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6378,7 +6103,7 @@
       <c r="D8" s="91"/>
       <c r="E8" s="92"/>
       <c r="H8" s="57" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
@@ -6390,19 +6115,19 @@
       <c r="D9" s="19"/>
       <c r="E9" s="18"/>
       <c r="H9" s="47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I9" s="46"/>
       <c r="J9" s="46"/>
       <c r="K9" s="45"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="145"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="147"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="151"/>
       <c r="H10" s="60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I10" s="61"/>
       <c r="J10" s="61"/>
@@ -6414,7 +6139,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="18"/>
       <c r="H11" s="42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I11" s="43"/>
       <c r="J11" s="43"/>
@@ -6523,13 +6248,13 @@
     <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="99" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" s="100"/>
       <c r="D26" s="100"/>
       <c r="E26" s="101"/>
       <c r="H26" s="99" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I26" s="100"/>
       <c r="J26" s="100"/>
@@ -6557,8 +6282,8 @@
     </row>
     <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="84"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="148"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
       <c r="E29" s="85"/>
       <c r="H29" s="7"/>
       <c r="I29" s="8"/>
@@ -6567,69 +6292,69 @@
     </row>
     <row r="30" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="84"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="148"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
       <c r="E30" s="86"/>
       <c r="H30" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="144" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="144"/>
+        <v>19</v>
+      </c>
+      <c r="I30" s="145" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="145"/>
       <c r="K30" s="58"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="149" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="151"/>
+      <c r="B31" s="146" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="148"/>
       <c r="H31" s="57" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I31" s="89"/>
       <c r="J31" s="89"/>
       <c r="K31" s="59"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="149" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="151"/>
+      <c r="B32" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="148"/>
       <c r="H32" s="47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I32" s="46"/>
       <c r="J32" s="46"/>
       <c r="K32" s="45"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="149" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="151"/>
+      <c r="B33" s="146" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="148"/>
       <c r="H33" s="60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I33" s="61"/>
       <c r="J33" s="61"/>
       <c r="K33" s="62"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="149" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="151"/>
+      <c r="B34" s="146" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="147"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="148"/>
       <c r="H34" s="42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I34" s="43"/>
       <c r="J34" s="43"/>
@@ -6646,48 +6371,48 @@
       <c r="K35" s="18"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="149" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="150"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="151"/>
+      <c r="B36" s="146" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="147"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="148"/>
       <c r="H36" s="16"/>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
       <c r="K36" s="18"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="149" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="151"/>
+      <c r="B37" s="146" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="147"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="148"/>
       <c r="H37" s="7"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="9"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="149" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="150"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="151"/>
+      <c r="B38" s="146" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="147"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="148"/>
       <c r="H38" s="16"/>
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
       <c r="K38" s="18"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="149" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="150"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="151"/>
+      <c r="B39" s="146" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="147"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="148"/>
       <c r="H39" s="90"/>
       <c r="I39" s="91"/>
       <c r="J39" s="91"/>
@@ -6745,6 +6470,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="H18:K18"/>
     <mergeCell ref="C29:D30"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="I30:J31"/>
@@ -6760,18 +6497,6 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
